--- a/REGULAR/MAYORS OFFICE/ROMILLA, EDITHA.xlsx
+++ b/REGULAR/MAYORS OFFICE/ROMILLA, EDITHA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>3/7,8,21/2022</t>
+  </si>
+  <si>
+    <t>11/17,20/2023</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1151,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1194,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1255,7 +1258,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1318,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1384,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,7 +1447,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1545,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +1604,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,7 +1669,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1712,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1787,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1970,7 +1973,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2039,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2097,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2163,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2219,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,7 +2294,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2337,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2403,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2459,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2557,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2620,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2686,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K147" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3061,12 +3064,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K145"/>
+  <dimension ref="A2:K147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane ySplit="3255" topLeftCell="A83" activePane="bottomLeft"/>
+      <pane ySplit="3255" topLeftCell="A95" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K89" sqref="K89"/>
+      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3227,7 +3230,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.603999999999999</v>
+        <v>70.603999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3237,7 +3240,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5436,13 +5439,15 @@
         <v>45108</v>
       </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
@@ -5454,13 +5459,15 @@
         <v>45139</v>
       </c>
       <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39"/>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
@@ -5472,13 +5479,15 @@
         <v>45170</v>
       </c>
       <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
+      <c r="C113" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G113" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
@@ -5490,13 +5499,15 @@
         <v>45200</v>
       </c>
       <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
@@ -5507,7 +5518,9 @@
       <c r="A115" s="40">
         <v>45231</v>
       </c>
-      <c r="B115" s="20"/>
+      <c r="B115" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
@@ -5519,13 +5532,15 @@
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
+      <c r="K115" s="49">
+        <v>45236</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B116" s="20"/>
+      <c r="A116" s="40"/>
+      <c r="B116" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
       <c r="E116" s="9"/>
@@ -5534,16 +5549,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H116" s="39"/>
+      <c r="H116" s="39">
+        <v>2</v>
+      </c>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
+      <c r="K116" s="49" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B117" s="20"/>
+      <c r="A117" s="40"/>
+      <c r="B117" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
@@ -5555,11 +5574,13 @@
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
+      <c r="K117" s="49">
+        <v>45255</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5577,7 +5598,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5595,7 +5616,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5613,7 +5634,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5631,7 +5652,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5649,7 +5670,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5667,7 +5688,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5685,7 +5706,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5703,7 +5724,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5721,7 +5742,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5739,7 +5760,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5757,7 +5778,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5775,7 +5796,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5793,7 +5814,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5811,7 +5832,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5829,7 +5850,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5847,7 +5868,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5865,7 +5886,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5883,7 +5904,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5901,7 +5922,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5919,7 +5940,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5937,7 +5958,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5955,7 +5976,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5973,7 +5994,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5991,7 +6012,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -6009,7 +6030,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -6026,7 +6047,9 @@
       <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
+      <c r="A144" s="40">
+        <v>46054</v>
+      </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
       <c r="D144" s="39"/>
@@ -6042,20 +6065,54 @@
       <c r="K144" s="20"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="41"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="42"/>
-      <c r="D145" s="43"/>
+      <c r="A145" s="40">
+        <v>46082</v>
+      </c>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="42" t="str">
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H145" s="43"/>
+      <c r="H145" s="39"/>
       <c r="I145" s="9"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="15"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="40"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="41"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="43"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="12"/>
+      <c r="K147" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
